--- a/data/cwEcoInfoData.xlsx
+++ b/data/cwEcoInfoData.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="27022"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="240" windowWidth="25360" windowHeight="18780" tabRatio="500"/>
+    <workbookView xWindow="20" yWindow="0" windowWidth="25580" windowHeight="14560" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="137" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="157" uniqueCount="68">
   <si>
     <t>Frost</t>
   </si>
@@ -156,18 +156,105 @@
     <t>NGOS</t>
   </si>
   <si>
-    <t>Meuret-Woody</t>
-  </si>
-  <si>
-    <t>Sitka Tribe</t>
+    <t>years in spreadsheet were 1992-1993, looks like it should  be 1995-1998</t>
+  </si>
+  <si>
+    <t>likely 460</t>
+  </si>
+  <si>
+    <t>probably the same project as 460</t>
+  </si>
+  <si>
+    <t>1520? (not sure which year 1520 is associated with)</t>
+  </si>
+  <si>
+    <t>marked 'replied' on redmine</t>
+  </si>
+  <si>
+    <t>dataset = 1527, cluster unknown</t>
+  </si>
+  <si>
+    <t>doi:10.5063/F1QJ7F7N</t>
+  </si>
+  <si>
+    <t>looks like it's also 143, although it begins long before 1989 (redmine page for cluster 143 includes the same doi as this project)</t>
+  </si>
+  <si>
+    <t>df35d.228.6</t>
+  </si>
+  <si>
+    <t>doi:10.5063/F1KS6PHX</t>
+  </si>
+  <si>
+    <t>same as 791? Years are the same, however, there is no oceanography dataset in the package on the portal</t>
+  </si>
+  <si>
+    <t>doi:10.5063/F1JW8BSV</t>
+  </si>
+  <si>
+    <t>df35d.455.4</t>
+  </si>
+  <si>
+    <t>df35c.9.25</t>
+  </si>
+  <si>
+    <t>df35b.194.6</t>
+  </si>
+  <si>
+    <t>GIS tracks: df35d.462.4</t>
+  </si>
+  <si>
+    <t>Behaviour &amp; feeding summaries: df35d.408.7</t>
+  </si>
+  <si>
+    <t>Biopsy summaries: df35d.402.7</t>
+  </si>
+  <si>
+    <t>Photographic summaries: df35d.136.17</t>
+  </si>
+  <si>
+    <t>duplicate?</t>
+  </si>
+  <si>
+    <t>likely a different project from 861; could be 626</t>
+  </si>
+  <si>
+    <t>may be 594</t>
+  </si>
+  <si>
+    <t>years do not match anything on portal</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="12"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="12"/>
+      <color theme="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
       <sz val="12"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -192,13 +279,26 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="7">
+    <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -528,15 +628,22 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K30"/>
+  <dimension ref="A1:L29"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:K30"/>
+      <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <cols>
+    <col min="1" max="1" width="14.33203125" customWidth="1"/>
+    <col min="2" max="3" width="10.83203125" customWidth="1"/>
+    <col min="5" max="5" width="20.1640625" customWidth="1"/>
+    <col min="6" max="6" width="10.83203125" customWidth="1"/>
+    <col min="10" max="10" width="10.83203125" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:11">
+    <row r="1" spans="1:12">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -546,6 +653,9 @@
       <c r="D1" t="s">
         <v>2</v>
       </c>
+      <c r="E1" t="s">
+        <v>52</v>
+      </c>
       <c r="G1">
         <v>1975</v>
       </c>
@@ -555,8 +665,11 @@
       <c r="K1" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="2" spans="1:11">
+      <c r="L1" s="1" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -575,8 +688,11 @@
       <c r="K2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="3" spans="1:11">
+      <c r="L2" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12">
       <c r="A3" t="s">
         <v>0</v>
       </c>
@@ -586,6 +702,9 @@
       <c r="D3" t="s">
         <v>2</v>
       </c>
+      <c r="E3">
+        <v>143</v>
+      </c>
       <c r="G3">
         <v>1989</v>
       </c>
@@ -596,7 +715,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="1:11">
+    <row r="4" spans="1:12">
       <c r="A4" t="s">
         <v>4</v>
       </c>
@@ -606,6 +725,9 @@
       <c r="D4" t="s">
         <v>5</v>
       </c>
+      <c r="E4">
+        <v>736</v>
+      </c>
       <c r="G4">
         <v>1995</v>
       </c>
@@ -616,7 +738,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="5" spans="1:11">
+    <row r="5" spans="1:12">
       <c r="A5" t="s">
         <v>7</v>
       </c>
@@ -626,6 +748,9 @@
       <c r="D5" t="s">
         <v>8</v>
       </c>
+      <c r="E5">
+        <v>857</v>
+      </c>
       <c r="G5">
         <v>1995</v>
       </c>
@@ -639,7 +764,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="6" spans="1:11">
+    <row r="6" spans="1:12">
       <c r="A6" t="s">
         <v>11</v>
       </c>
@@ -647,7 +772,10 @@
         <v>1</v>
       </c>
       <c r="D6" t="s">
-        <v>5</v>
+        <v>12</v>
+      </c>
+      <c r="E6">
+        <v>861</v>
       </c>
       <c r="G6">
         <v>1989</v>
@@ -659,7 +787,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="7" spans="1:11">
+    <row r="7" spans="1:12">
       <c r="A7" t="s">
         <v>11</v>
       </c>
@@ -667,7 +795,10 @@
         <v>1</v>
       </c>
       <c r="D7" t="s">
-        <v>12</v>
+        <v>5</v>
+      </c>
+      <c r="E7" t="s">
+        <v>65</v>
       </c>
       <c r="G7">
         <v>1990</v>
@@ -681,8 +812,11 @@
       <c r="K7" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="8" spans="1:11">
+      <c r="L7" s="1" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12">
       <c r="A8" t="s">
         <v>14</v>
       </c>
@@ -692,17 +826,23 @@
       <c r="D8" t="s">
         <v>5</v>
       </c>
+      <c r="E8">
+        <v>990</v>
+      </c>
       <c r="G8">
-        <v>1992</v>
+        <v>1995</v>
       </c>
       <c r="H8">
-        <v>1993</v>
+        <v>1998</v>
       </c>
       <c r="K8" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="9" spans="1:11">
+      <c r="L8" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12">
       <c r="A9" t="s">
         <v>15</v>
       </c>
@@ -712,6 +852,9 @@
       <c r="D9" t="s">
         <v>2</v>
       </c>
+      <c r="E9" t="s">
+        <v>66</v>
+      </c>
       <c r="G9">
         <v>1979</v>
       </c>
@@ -721,8 +864,11 @@
       <c r="K9" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="10" spans="1:11">
+      <c r="L9" s="1" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12">
       <c r="A10" t="s">
         <v>17</v>
       </c>
@@ -732,6 +878,9 @@
       <c r="D10" t="s">
         <v>18</v>
       </c>
+      <c r="E10">
+        <v>1399</v>
+      </c>
       <c r="G10">
         <v>1997</v>
       </c>
@@ -745,7 +894,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="11" spans="1:11">
+    <row r="11" spans="1:12">
       <c r="A11" t="s">
         <v>17</v>
       </c>
@@ -755,6 +904,9 @@
       <c r="D11" t="s">
         <v>18</v>
       </c>
+      <c r="E11">
+        <v>1399</v>
+      </c>
       <c r="G11">
         <v>1998</v>
       </c>
@@ -768,7 +920,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="12" spans="1:11">
+    <row r="12" spans="1:12">
       <c r="A12" t="s">
         <v>17</v>
       </c>
@@ -778,6 +930,9 @@
       <c r="D12" t="s">
         <v>18</v>
       </c>
+      <c r="E12">
+        <v>1399</v>
+      </c>
       <c r="G12">
         <v>1997</v>
       </c>
@@ -791,7 +946,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="13" spans="1:11">
+    <row r="13" spans="1:12">
       <c r="A13" t="s">
         <v>21</v>
       </c>
@@ -801,6 +956,9 @@
       <c r="D13" t="s">
         <v>18</v>
       </c>
+      <c r="E13">
+        <v>1399</v>
+      </c>
       <c r="G13">
         <v>1997</v>
       </c>
@@ -814,7 +972,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="14" spans="1:11">
+    <row r="14" spans="1:12">
       <c r="A14" t="s">
         <v>22</v>
       </c>
@@ -824,6 +982,9 @@
       <c r="D14" t="s">
         <v>12</v>
       </c>
+      <c r="E14" t="s">
+        <v>46</v>
+      </c>
       <c r="G14">
         <v>1990</v>
       </c>
@@ -836,8 +997,11 @@
       <c r="K14" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="15" spans="1:11">
+      <c r="L14" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12">
       <c r="A15" t="s">
         <v>22</v>
       </c>
@@ -847,6 +1011,9 @@
       <c r="D15" t="s">
         <v>12</v>
       </c>
+      <c r="E15">
+        <v>460</v>
+      </c>
       <c r="G15">
         <v>1990</v>
       </c>
@@ -860,7 +1027,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="16" spans="1:11">
+    <row r="16" spans="1:12">
       <c r="A16" t="s">
         <v>25</v>
       </c>
@@ -870,6 +1037,9 @@
       <c r="D16" t="s">
         <v>18</v>
       </c>
+      <c r="E16" t="s">
+        <v>55</v>
+      </c>
       <c r="G16">
         <v>1989</v>
       </c>
@@ -883,7 +1053,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="17" spans="1:11">
+    <row r="17" spans="1:12">
       <c r="A17" t="s">
         <v>25</v>
       </c>
@@ -893,6 +1063,9 @@
       <c r="D17" t="s">
         <v>27</v>
       </c>
+      <c r="E17">
+        <v>791</v>
+      </c>
       <c r="G17">
         <v>1989</v>
       </c>
@@ -906,7 +1079,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="18" spans="1:11">
+    <row r="18" spans="1:12">
       <c r="A18" t="s">
         <v>29</v>
       </c>
@@ -916,6 +1089,9 @@
       <c r="D18" t="s">
         <v>5</v>
       </c>
+      <c r="E18">
+        <v>151</v>
+      </c>
       <c r="G18">
         <v>1994</v>
       </c>
@@ -925,8 +1101,11 @@
       <c r="K18" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="19" spans="1:11">
+      <c r="L18" s="1" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="19" spans="1:12">
       <c r="A19" t="s">
         <v>31</v>
       </c>
@@ -936,6 +1115,9 @@
       <c r="D19" t="s">
         <v>12</v>
       </c>
+      <c r="E19">
+        <v>478</v>
+      </c>
       <c r="G19">
         <v>2003</v>
       </c>
@@ -949,7 +1131,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="20" spans="1:11">
+    <row r="20" spans="1:12">
       <c r="A20" t="s">
         <v>33</v>
       </c>
@@ -959,6 +1141,9 @@
       <c r="D20" t="s">
         <v>34</v>
       </c>
+      <c r="E20" t="s">
+        <v>48</v>
+      </c>
       <c r="G20">
         <v>2000</v>
       </c>
@@ -971,8 +1156,11 @@
       <c r="K20" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="21" spans="1:11">
+      <c r="L20" s="1" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="21" spans="1:12">
       <c r="A21" t="s">
         <v>33</v>
       </c>
@@ -982,6 +1170,9 @@
       <c r="D21" t="s">
         <v>34</v>
       </c>
+      <c r="E21">
+        <v>948</v>
+      </c>
       <c r="G21">
         <v>2002</v>
       </c>
@@ -994,8 +1185,11 @@
       <c r="K21" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="22" spans="1:11">
+      <c r="L21" s="1" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="22" spans="1:12">
       <c r="A22" t="s">
         <v>33</v>
       </c>
@@ -1005,6 +1199,9 @@
       <c r="D22" t="s">
         <v>34</v>
       </c>
+      <c r="E22">
+        <v>948</v>
+      </c>
       <c r="G22">
         <v>2010</v>
       </c>
@@ -1017,8 +1214,11 @@
       <c r="K22" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="23" spans="1:11">
+      <c r="L22" s="1" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="23" spans="1:12">
       <c r="A23" t="s">
         <v>37</v>
       </c>
@@ -1028,6 +1228,9 @@
       <c r="D23" t="s">
         <v>12</v>
       </c>
+      <c r="E23">
+        <v>707</v>
+      </c>
       <c r="G23">
         <v>2007</v>
       </c>
@@ -1040,8 +1243,11 @@
       <c r="K23" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="24" spans="1:11">
+      <c r="L23" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="24" spans="1:12">
       <c r="A24" t="s">
         <v>40</v>
       </c>
@@ -1054,6 +1260,9 @@
       <c r="D24" t="s">
         <v>2</v>
       </c>
+      <c r="E24" t="s">
+        <v>50</v>
+      </c>
       <c r="F24" t="s">
         <v>42</v>
       </c>
@@ -1067,7 +1276,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="25" spans="1:11">
+    <row r="25" spans="1:12">
       <c r="A25" t="s">
         <v>43</v>
       </c>
@@ -1077,6 +1286,9 @@
       <c r="D25" t="s">
         <v>2</v>
       </c>
+      <c r="E25">
+        <v>127</v>
+      </c>
       <c r="G25">
         <v>1984</v>
       </c>
@@ -1086,8 +1298,11 @@
       <c r="K25" t="s">
         <v>44</v>
       </c>
-    </row>
-    <row r="26" spans="1:11">
+      <c r="L25" s="1" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="26" spans="1:12">
       <c r="A26" t="s">
         <v>43</v>
       </c>
@@ -1097,6 +1312,9 @@
       <c r="D26" t="s">
         <v>2</v>
       </c>
+      <c r="E26">
+        <v>127</v>
+      </c>
       <c r="G26">
         <v>1984</v>
       </c>
@@ -1106,8 +1324,11 @@
       <c r="K26" t="s">
         <v>44</v>
       </c>
-    </row>
-    <row r="27" spans="1:11">
+      <c r="L26" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="27" spans="1:12">
       <c r="A27" t="s">
         <v>43</v>
       </c>
@@ -1117,6 +1338,9 @@
       <c r="D27" t="s">
         <v>2</v>
       </c>
+      <c r="E27" t="s">
+        <v>64</v>
+      </c>
       <c r="G27">
         <v>1984</v>
       </c>
@@ -1126,8 +1350,11 @@
       <c r="K27" t="s">
         <v>44</v>
       </c>
-    </row>
-    <row r="28" spans="1:11">
+      <c r="L27" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="28" spans="1:12">
       <c r="A28" t="s">
         <v>43</v>
       </c>
@@ -1137,6 +1364,9 @@
       <c r="D28" t="s">
         <v>2</v>
       </c>
+      <c r="E28">
+        <v>127</v>
+      </c>
       <c r="G28">
         <v>2003</v>
       </c>
@@ -1146,8 +1376,11 @@
       <c r="K28" t="s">
         <v>44</v>
       </c>
-    </row>
-    <row r="29" spans="1:11">
+      <c r="L28" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="29" spans="1:12">
       <c r="A29" t="s">
         <v>43</v>
       </c>
@@ -1157,6 +1390,9 @@
       <c r="D29" t="s">
         <v>2</v>
       </c>
+      <c r="E29">
+        <v>127</v>
+      </c>
       <c r="G29">
         <v>1994</v>
       </c>
@@ -1166,29 +1402,13 @@
       <c r="K29" t="s">
         <v>44</v>
       </c>
-    </row>
-    <row r="30" spans="1:11">
-      <c r="A30" t="s">
-        <v>45</v>
-      </c>
-      <c r="B30" t="s">
-        <v>1</v>
-      </c>
-      <c r="D30" t="s">
-        <v>5</v>
-      </c>
-      <c r="G30">
-        <v>2007</v>
-      </c>
-      <c r="H30">
-        <v>2008</v>
-      </c>
-      <c r="K30" t="s">
-        <v>46</v>
+      <c r="L29" t="s">
+        <v>62</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
       <mx:PLV Mode="0" OnePage="0" WScale="0"/>
